--- a/股票账户收益统计.xlsx
+++ b/股票账户收益统计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,20 +27,16 @@
     <t>2016/2/30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>总和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,13 +49,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,14 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -134,7 +120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -209,23 +195,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -261,23 +230,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -465,7 +417,7 @@
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,36 +425,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42185</v>
       </c>
       <c r="B2">
         <v>44.48</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4">
-        <f>SUM(B2:B28)</f>
-        <v>15149.809999999998</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42215</v>
       </c>
       <c r="B3">
         <v>-432.47</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42246</v>
       </c>
@@ -510,7 +449,7 @@
         <v>-601.6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42277</v>
       </c>
@@ -518,7 +457,7 @@
         <v>967.07</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42307</v>
       </c>
@@ -526,7 +465,7 @@
         <v>464.33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>42338</v>
       </c>
@@ -534,7 +473,7 @@
         <v>-3.29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>42368</v>
       </c>
@@ -542,7 +481,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>42399</v>
       </c>
@@ -550,7 +489,7 @@
         <v>-443</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -558,7 +497,7 @@
         <v>-4399.01</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>42459</v>
       </c>
@@ -566,7 +505,7 @@
         <v>-545.49</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>42490</v>
       </c>
@@ -574,7 +513,7 @@
         <v>2989.78</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>42520</v>
       </c>
@@ -582,7 +521,7 @@
         <v>693.08</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>42551</v>
       </c>
@@ -590,7 +529,7 @@
         <v>2278.3200000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>42581</v>
       </c>
@@ -598,7 +537,7 @@
         <v>475.04</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>42612</v>
       </c>
@@ -606,7 +545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>42643</v>
       </c>
@@ -614,7 +553,7 @@
         <v>-588.21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>42673</v>
       </c>
@@ -622,7 +561,7 @@
         <v>-119</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>42704</v>
       </c>
@@ -630,7 +569,7 @@
         <v>681.72</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>42734</v>
       </c>
@@ -638,7 +577,7 @@
         <v>-1572.98</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>42765</v>
       </c>
@@ -646,7 +585,7 @@
         <v>-193.44</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>42794</v>
       </c>
@@ -654,7 +593,7 @@
         <v>8468</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>42825</v>
       </c>
@@ -662,7 +601,7 @@
         <v>7396.67</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>42855</v>
       </c>
@@ -670,7 +609,7 @@
         <v>-1656</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42886</v>
       </c>
@@ -678,7 +617,7 @@
         <v>-690</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42916</v>
       </c>
@@ -686,7 +625,7 @@
         <v>382.01</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42947</v>
       </c>
@@ -694,7 +633,7 @@
         <v>7470</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>42978</v>
       </c>
@@ -702,35 +641,62 @@
         <v>-5952.5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>43008</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>43039</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>-302.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B31">
+        <v>-1310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B32">
+        <v>308.29000000000002</v>
+      </c>
+      <c r="F32" s="3">
+        <f>SUM(B2:B50)</f>
+        <v>16022.34</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B33">
+        <v>2078.79</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:G3"/>
+  <mergeCells count="1">
+    <mergeCell ref="F32:G33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
